--- a/kids_door_web_initial_look.xlsx
+++ b/kids_door_web_initial_look.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/banksv03/Documents/Projects/kids-door-experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181682E8-9447-A44E-A295-A3A116941E40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300B21AD-7C0B-2C4E-AE81-809960CCEF4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{E3EF1321-968B-8243-BC53-DA5BC56E4DFC}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$24:$F$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$H$24:$M$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="44">
   <si>
     <t>dt</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>num visits that watched kids content</t>
+  </si>
+  <si>
+    <t>The journey work on signed in visitors found that only 32% of iPlayer web visits had a play complete. So 53% is not unreasonably low.</t>
   </si>
 </sst>
 </file>
@@ -722,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F474DC20-F786-EC4A-BE6C-1F2167E494CE}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -878,6 +881,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" s="2"/>
@@ -922,6 +926,9 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C12" s="2"/>
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1228,11 +1235,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A24:F34" xr:uid="{8796C1BB-8B3C-9D47-BF53-B4A8C266AF3C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A25:F34">
-      <sortCondition ref="A24:A34"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>